--- a/biology/Médecine/Lorlatinib/Lorlatinib.xlsx
+++ b/biology/Médecine/Lorlatinib/Lorlatinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lorlatinib est une molécule utilisée comme un inhibiteur de l'ALK de troisième génération.
-Il est efficace dans les formes résistantes aux inhibiteurs de l'ALK de première (crizotinib) et de deuxième génération (ceritinib et alectinib)[1].
-Il passe la barrière hémato-encéphalique[2], ce qui permet son utilisation en cas de métastases cérébrale[3]. 
-Dans le cancer bronchique non à petites cellules, ALK+, il permet un taux de réponse supérieur au crizotinib[4]. L'essai clinique de phase III montre « une réduction de 81 % du risque de progression de la maladie ou de décès »[5],[6].
+Il est efficace dans les formes résistantes aux inhibiteurs de l'ALK de première (crizotinib) et de deuxième génération (ceritinib et alectinib).
+Il passe la barrière hémato-encéphalique, ce qui permet son utilisation en cas de métastases cérébrale. 
+Dans le cancer bronchique non à petites cellules, ALK+, il permet un taux de réponse supérieur au crizotinib. L'essai clinique de phase III montre « une réduction de 81 % du risque de progression de la maladie ou de décès »,.
 </t>
         </is>
       </c>
